--- a/Budget Project.xlsx
+++ b/Budget Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickferreri/Desktop/ZTM/06_Excel-Bootcamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickferreri/Desktop/ZTM/06_Excel-Bootcamp/Budget Project/excel-budget-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3B2F3-3EE1-434E-B561-6A390D94B39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B19957-BF1A-7E45-94C5-145A60A313B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="500" windowWidth="34760" windowHeight="26560" activeTab="1" xr2:uid="{C89D71F3-30A0-5940-8E64-08ACDFA4B450}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{C89D71F3-30A0-5940-8E64-08ACDFA4B450}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -579,20 +579,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -605,7 +606,18 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{6F91D82E-F2A7-5149-8CBB-5411C0ECD769}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -618,6 +630,1912 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Income vs Expenses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL MONTHLY INCOME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32B9-1E48-9EC7-B94078E65D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL MONTHLY EXPENSES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32B9-1E48-9EC7-B94078E65D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1961458703"/>
+        <c:axId val="1563932431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1961458703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1563932431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1563932431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961458703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expenses by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Spending Summary'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$ Spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Spending Summary'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Mortgage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gas/Automotive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dining</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Merchandise</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Services</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lodging</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Airfare</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Professional Services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Other Travel</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Phone/Cable</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Payment/Credit</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Health Care</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Spending Summary'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12071.640000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31147.119999999977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51422.080000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4222.7400000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4224.3999999999978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3420.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3178.6599999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6332.4900000000016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8687.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>695.44999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2566.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4381.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288.96000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1096.2099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E021-5246-902D-4B2C5D975C28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="1051106383"/>
+        <c:axId val="1135022159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1051106383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1135022159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1135022159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1051106383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="'Behind the Scenes'!$C$2" horiz="1" max="100" page="10" val="56"/>
 </file>
@@ -628,20 +2546,97 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96761</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D337857C-8A49-3016-D3F9-478C802AAEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356809</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>199572</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956D341D-10E1-056F-7805-757F0DE81612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>822118</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>197520</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>6384</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>6382</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -651,7 +2646,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD98CA2-3B90-5A84-8B9A-D7C9104E8528}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -701,7 +2696,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9B1620-68E3-A1C4-3B54-9C1B7227118C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1079,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B272F42-69FD-0D43-99F3-3AE8D86FFFCF}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,12 +3085,12 @@
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1141,49 +3136,49 @@
     </row>
     <row r="10" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="15" t="str">
         <f ca="1">"Happy "&amp;TEXT(TODAY(),"dddd")&amp;"!"</f>
         <v>Happy Thursday!</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="15" t="str">
         <f ca="1">"You have "&amp;(EOMONTH(TODAY(),0)-TODAY()+1)&amp;" days until the end of the month!"</f>
         <v>You have 14 days until the end of the month!</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="2"/>
     </row>
   </sheetData>
@@ -1192,7 +3187,13 @@
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C7 C9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1200,7 +3201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4448DAD-F65B-6F49-9070-5ECDCA6868EE}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1216,18 +3217,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="4" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -1272,14 +3273,14 @@
         <f ca="1">(C4-C8)/DATEDIF(TODAY(),C6,"M")</f>
         <v>1215.1162790697674</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1549,7 +3550,7 @@
   <dimension ref="A1:B2327"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
